--- a/asobbs/ドキュメント/99_スケジュール.xlsx
+++ b/asobbs/ドキュメント/99_スケジュール.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
+    <sheet name="スケジュール (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="スケジュール" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>設計</t>
     <rPh sb="0" eb="2">
@@ -68,12 +69,182 @@
     <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+  </si>
+  <si>
+    <t>ユーザーの一括登録</t>
+    <rPh sb="5" eb="7">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>退学処理</t>
+    <rPh sb="0" eb="2">
+      <t>タイガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>留年処理</t>
+    <rPh sb="0" eb="2">
+      <t>リュウネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休学処理</t>
+    <rPh sb="0" eb="2">
+      <t>キュウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルーム作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルーム情報編集</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書き込み</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャット機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報出力</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板情報出力</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラスマスターメンテ</t>
+  </si>
+  <si>
+    <t>学年更新処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBバックアップ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +259,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,11 +312,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -142,10 +365,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -450,9 +684,2415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="73" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="3">
+        <v>43486</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43487</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43488</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43489</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43490</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43491</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43492</v>
+      </c>
+      <c r="K1" s="3">
+        <v>43493</v>
+      </c>
+      <c r="L1" s="3">
+        <v>43494</v>
+      </c>
+      <c r="M1" s="3">
+        <v>43495</v>
+      </c>
+      <c r="N1" s="3">
+        <v>43496</v>
+      </c>
+      <c r="O1" s="3">
+        <v>43497</v>
+      </c>
+      <c r="P1" s="3">
+        <v>43498</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>43499</v>
+      </c>
+      <c r="R1" s="3">
+        <v>43500</v>
+      </c>
+      <c r="S1" s="3">
+        <v>43501</v>
+      </c>
+      <c r="T1" s="3">
+        <v>43502</v>
+      </c>
+      <c r="U1" s="3">
+        <v>43503</v>
+      </c>
+      <c r="V1" s="3">
+        <v>43504</v>
+      </c>
+      <c r="W1" s="3">
+        <v>43505</v>
+      </c>
+      <c r="X1" s="3">
+        <v>43506</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>43507</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>43508</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>43509</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>43510</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>43511</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>43512</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>43513</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>43514</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>43515</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>43516</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>43517</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>43518</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>43519</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>43520</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>43521</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>43522</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>43523</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>43524</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>43525</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>43526</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>43527</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>43528</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>43529</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>43530</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>43531</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>43532</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>43533</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>43534</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>43535</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>43536</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>43537</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>43538</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>43539</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>43540</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>43541</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43542</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>43543</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>43544</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43545</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43546</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43547</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43548</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43549</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>43550</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>43551</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>43552</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>43553</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>43554</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+    </row>
+    <row r="22" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+    </row>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+    </row>
+    <row r="28" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+      <c r="BQ29" s="5"/>
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="5"/>
+      <c r="BT29" s="5"/>
+      <c r="BU29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="B5:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -679,17 +3319,17 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -757,7 +3397,7 @@
       <c r="BT2" s="2"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,13 +3406,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -833,7 +3473,7 @@
       <c r="BT3" s="2"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -851,11 +3491,11 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -911,7 +3551,7 @@
       <c r="BT4" s="2"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -932,28 +3572,28 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
@@ -987,7 +3627,7 @@
       <c r="BT5" s="2"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1030,13 +3670,13 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
@@ -1063,7 +3703,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1113,12 +3753,12 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
@@ -1139,7 +3779,7 @@
       <c r="BT7" s="2"/>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1197,24 +3837,24 @@
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/asobbs/ドキュメント/99_スケジュール.xlsx
+++ b/asobbs/ドキュメント/99_スケジュール.xlsx
@@ -269,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -366,10 +372,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -379,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -687,10 +694,10 @@
   <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
+      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,7 +920,7 @@
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -992,7 +999,7 @@
       <c r="BU2" s="2"/>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1076,7 @@
       <c r="BU3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1088,33 +1095,33 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
@@ -1148,11 +1155,11 @@
       <c r="BU4" s="2"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
@@ -1167,33 +1174,33 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -1227,9 +1234,9 @@
       <c r="BU5" s="2"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2"/>
@@ -1244,33 +1251,33 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -1304,9 +1311,9 @@
       <c r="BU6" s="2"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2"/>
@@ -1321,33 +1328,33 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
@@ -1381,8 +1388,8 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1398,33 +1405,33 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
@@ -1458,8 +1465,8 @@
       <c r="BU8" s="2"/>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1475,32 +1482,32 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
@@ -1535,8 +1542,8 @@
       <c r="BU9" s="2"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1552,32 +1559,32 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
@@ -1612,9 +1619,9 @@
       <c r="BU10" s="2"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2"/>
@@ -1629,33 +1636,33 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
@@ -1689,8 +1696,8 @@
       <c r="BU11" s="2"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1706,33 +1713,33 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
@@ -1766,8 +1773,8 @@
       <c r="BU12" s="2"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1783,33 +1790,33 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
@@ -1843,8 +1850,8 @@
       <c r="BU13" s="2"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1860,33 +1867,33 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -1920,9 +1927,9 @@
       <c r="BU14" s="2"/>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2"/>
@@ -1937,33 +1944,33 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
@@ -1997,9 +2004,9 @@
       <c r="BU15" s="2"/>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2"/>
@@ -2014,33 +2021,33 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -2074,9 +2081,9 @@
       <c r="BU16" s="2"/>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2"/>
@@ -2091,33 +2098,33 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -2151,9 +2158,9 @@
       <c r="BU17" s="2"/>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2"/>
@@ -2168,33 +2175,33 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
@@ -2228,9 +2235,9 @@
       <c r="BU18" s="2"/>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2"/>
@@ -2245,33 +2252,33 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
@@ -2305,8 +2312,8 @@
       <c r="BU19" s="2"/>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2322,36 +2329,36 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
@@ -2382,9 +2389,9 @@
       <c r="BU20" s="2"/>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2"/>
@@ -2399,36 +2406,36 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
@@ -2459,8 +2466,8 @@
       <c r="BU21" s="2"/>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2476,36 +2483,36 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
@@ -2536,8 +2543,8 @@
       <c r="BU22" s="2"/>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2553,36 +2560,36 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2613,8 +2620,8 @@
       <c r="BU23" s="2"/>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2630,36 +2637,36 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2690,8 +2697,8 @@
       <c r="BU24" s="2"/>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2707,36 +2714,36 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
       <c r="AR25" s="5"/>
-      <c r="AS25" s="7"/>
+      <c r="AS25" s="6"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
@@ -2767,8 +2774,8 @@
       <c r="BU25" s="2"/>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2784,33 +2791,33 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="2"/>
@@ -2844,7 +2851,7 @@
       <c r="BU26" s="2"/>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -2888,8 +2895,8 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
       <c r="AS27" s="5"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
@@ -2921,7 +2928,7 @@
       <c r="BU27" s="2"/>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3326,7 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3397,7 +3404,7 @@
       <c r="BT2" s="2"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="BT3" s="2"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3551,7 +3558,7 @@
       <c r="BT4" s="2"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3634,7 @@
       <c r="BT5" s="2"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3710,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>

--- a/asobbs/ドキュメント/99_スケジュール.xlsx
+++ b/asobbs/ドキュメント/99_スケジュール.xlsx
@@ -374,6 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,7 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -694,10 +694,10 @@
   <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -999,7 +999,7 @@
       <c r="BU2" s="2"/>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BU3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1155,8 +1155,8 @@
       <c r="BU4" s="2"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1234,8 +1234,8 @@
       <c r="BU5" s="2"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1311,8 +1311,8 @@
       <c r="BU6" s="2"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1388,8 +1388,8 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1465,9 +1465,9 @@
       <c r="BU8" s="2"/>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
@@ -1542,9 +1542,9 @@
       <c r="BU9" s="2"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
@@ -1619,8 +1619,8 @@
       <c r="BU10" s="2"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1696,8 +1696,8 @@
       <c r="BU11" s="2"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="BU12" s="2"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1850,8 +1850,8 @@
       <c r="BU13" s="2"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1927,8 +1927,8 @@
       <c r="BU14" s="2"/>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
@@ -2004,8 +2004,8 @@
       <c r="BU15" s="2"/>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
@@ -2081,9 +2081,9 @@
       <c r="BU16" s="2"/>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2"/>
@@ -2158,9 +2158,9 @@
       <c r="BU17" s="2"/>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2"/>
@@ -2235,9 +2235,9 @@
       <c r="BU18" s="2"/>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2"/>
@@ -2312,8 +2312,8 @@
       <c r="BU19" s="2"/>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2389,9 +2389,9 @@
       <c r="BU20" s="2"/>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2"/>
@@ -2466,8 +2466,8 @@
       <c r="BU21" s="2"/>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2543,8 +2543,8 @@
       <c r="BU22" s="2"/>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="BU23" s="2"/>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2697,9 +2697,9 @@
       <c r="BU24" s="2"/>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2"/>
@@ -2774,8 +2774,8 @@
       <c r="BU25" s="2"/>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="BU26" s="2"/>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="BU27" s="2"/>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3404,7 +3404,7 @@
       <c r="BT2" s="2"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="BT3" s="2"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3558,7 +3558,7 @@
       <c r="BT4" s="2"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="BT5" s="2"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
